--- a/src/main/java/Com/Techno/Qa/Config/Book1.xlsx
+++ b/src/main/java/Com/Techno/Qa/Config/Book1.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="2745"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>vijay123</t>
   </si>
@@ -38,9 +34,6 @@
     <t>mehul</t>
   </si>
   <si>
-    <t>harish</t>
-  </si>
-  <si>
     <t>karan</t>
   </si>
   <si>
@@ -60,6 +53,15 @@
   </si>
   <si>
     <t>message</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>aman</t>
   </si>
 </sst>
 </file>
@@ -380,7 +382,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,16 +393,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -410,8 +412,8 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -427,16 +429,16 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -447,10 +449,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>8</v>
